--- a/cordic_val.xlsx
+++ b/cordic_val.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a41884481f7ad622/Desktop/cordic_roundoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{3C54E802-42E9-4A34-8CA4-94CD0E098DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCCFC8F-077F-4CD4-B7D8-959A4C94D12D}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{3C54E802-42E9-4A34-8CA4-94CD0E098DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ED3823-E17C-4AA6-A24A-71DC35C35BF2}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE795A38-C132-4C1A-9658-6C2CC3DC9B70}"/>
   </bookViews>
@@ -38,30 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
-    <t>expected cos</t>
-  </si>
-  <si>
-    <t>expected sin</t>
-  </si>
-  <si>
-    <t>cos_val binary</t>
-  </si>
-  <si>
-    <t>sin_val binary</t>
-  </si>
-  <si>
-    <t>cos_val decimal</t>
-  </si>
-  <si>
-    <t>sin_val decimal</t>
-  </si>
-  <si>
-    <t>angle binary</t>
-  </si>
-  <si>
-    <t>angle decimal</t>
-  </si>
-  <si>
     <t>00000001</t>
   </si>
   <si>
@@ -162,6 +138,30 @@
   </si>
   <si>
     <t>011111111</t>
+  </si>
+  <si>
+    <t>Angle binary</t>
+  </si>
+  <si>
+    <t>Angle decimal</t>
+  </si>
+  <si>
+    <t>Expected cos</t>
+  </si>
+  <si>
+    <t>Actual cos_val binary</t>
+  </si>
+  <si>
+    <t>Actual cos_val decimal</t>
+  </si>
+  <si>
+    <t>Expected sin</t>
+  </si>
+  <si>
+    <t>Actual sin_val binary</t>
+  </si>
+  <si>
+    <t>Actual sin_val decimal</t>
   </si>
 </sst>
 </file>
@@ -177,15 +177,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,14 +205,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +678,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -528,526 +687,526 @@
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.89453125" customWidth="1"/>
     <col min="8" max="8" width="13.15625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1.57</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>7.963E-4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
         <v>1.5625E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <f>ABS(F2-D2)*100</f>
         <v>1.4828700000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.9921875</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <f>ABS(J2-H2)*100</f>
         <v>0.7712500000000011</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.22173</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.3515625</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G14" si="0">ABS(F3-D3)*100</f>
         <v>0.95624999999999738</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.93959999999999999</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
         <v>0.9453125</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <f t="shared" ref="K3:K14" si="1">ABS(J3-H3)*100</f>
         <v>0.57125000000000092</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.87266500000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.64280000000000004</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.65625</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>1.3449999999999962</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.7578125</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <f t="shared" si="1"/>
         <v>0.81875000000000142</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.78539800000000004</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.70709999999999995</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.7109375</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.38375000000000492</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.7109375</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <f t="shared" si="1"/>
         <v>0.39375000000000382</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.52359900000000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.875</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.9000000000000008</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>0.49990000000000001</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.17453299999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.98480000000000001</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.984375</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>4.250000000000087E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.1736</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.171875</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="9">
         <f t="shared" si="1"/>
         <v>0.17250000000000043</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+      <c r="A8" s="10">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.9921875</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>0.78125</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>7.8125E-3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <f t="shared" si="1"/>
         <v>0.78125</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>-10</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
         <v>-0.17453299999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.98480000000000001</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.984375</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>4.250000000000087E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>-0.1736</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>10010110</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>-0.171875</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="9">
         <f t="shared" si="1"/>
         <v>0.17250000000000043</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>-30</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
         <v>-0.52359900000000004</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.86607000000000001</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
         <v>0.875</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>0.89299999999999935</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>-0.49990000000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>11000000</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>-0.5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>-45</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
         <v>-0.78539800000000004</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.70709999999999995</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.7109375</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>0.38375000000000492</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>-0.70699999999999996</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2">
         <v>-0.7109375</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="9">
         <f t="shared" si="1"/>
         <v>0.39375000000000382</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>-50</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
         <v>-0.87266500000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.64280000000000004</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.65625</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>1.3449999999999962</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>-0.76600000000000001</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2">
         <v>-0.7578125</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="9">
         <f t="shared" si="1"/>
         <v>0.81875000000000142</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>-70</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
         <v>-1.22173</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.3515625</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>0.95624999999999738</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>-0.93959999999999999</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2">
         <v>-0.9453125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="9">
         <f t="shared" si="1"/>
         <v>0.57125000000000092</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+    <row r="14" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="11">
         <v>-90</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12">
         <v>-1.57</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>7.963E-4</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12">
         <v>1.5625E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>1.4828700000000001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>-0.99990000000000001</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="12">
         <v>-0.9921875</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="14">
         <f t="shared" si="1"/>
         <v>0.7712500000000011</v>
       </c>

--- a/cordic_val.xlsx
+++ b/cordic_val.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a41884481f7ad622/Desktop/cordic_roundoff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{3C54E802-42E9-4A34-8CA4-94CD0E098DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ED3823-E17C-4AA6-A24A-71DC35C35BF2}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{3C54E802-42E9-4A34-8CA4-94CD0E098DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23D56ABA-D822-4F23-A25C-828963A78F51}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE795A38-C132-4C1A-9658-6C2CC3DC9B70}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>00000001</t>
   </si>
@@ -162,13 +163,67 @@
   </si>
   <si>
     <t>Actual sin_val decimal</t>
+  </si>
+  <si>
+    <t>Post Synth Setup slack</t>
+  </si>
+  <si>
+    <t>Pre CTS Setup slack</t>
+  </si>
+  <si>
+    <t>Pre CTS Hold slack</t>
+  </si>
+  <si>
+    <t>Post CTS Setup slack</t>
+  </si>
+  <si>
+    <t>Post CTS Hold slack</t>
+  </si>
+  <si>
+    <t>Area reported</t>
+  </si>
+  <si>
+    <t>Power reported</t>
+  </si>
+  <si>
+    <t>DRC clean</t>
+  </si>
+  <si>
+    <t>3.947ns</t>
+  </si>
+  <si>
+    <t>0.073ns</t>
+  </si>
+  <si>
+    <t>3.891ns</t>
+  </si>
+  <si>
+    <t>9457.56 um^2</t>
+  </si>
+  <si>
+    <t>Total Internal Power</t>
+  </si>
+  <si>
+    <t>Total Switching Power</t>
+  </si>
+  <si>
+    <t>Total Leakage Power</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>7.247ns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +231,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -344,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -353,13 +421,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,6 +456,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,10 +760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F536E5E-E6B9-4880-B344-1A06004290E9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -693,9 +778,11 @@
     <col min="8" max="8" width="13.15625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.20703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -730,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8">
         <v>90</v>
       </c>
@@ -767,7 +854,7 @@
         <v>0.7712500000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="8">
         <v>70</v>
       </c>
@@ -803,8 +890,9 @@
         <f t="shared" ref="K3:K14" si="1">ABS(J3-H3)*100</f>
         <v>0.57125000000000092</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8">
         <v>50</v>
       </c>
@@ -840,8 +928,14 @@
         <f t="shared" si="1"/>
         <v>0.81875000000000142</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8">
         <v>45</v>
       </c>
@@ -877,8 +971,14 @@
         <f t="shared" si="1"/>
         <v>0.39375000000000382</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8">
         <v>30</v>
       </c>
@@ -914,8 +1014,14 @@
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
         <v>10</v>
       </c>
@@ -951,9 +1057,15 @@
         <f t="shared" si="1"/>
         <v>0.17250000000000043</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10">
+      <c r="N7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -988,8 +1100,14 @@
         <f t="shared" si="1"/>
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="17">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
         <v>-10</v>
       </c>
@@ -1025,8 +1143,14 @@
         <f t="shared" si="1"/>
         <v>0.17250000000000043</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="8">
         <v>-30</v>
       </c>
@@ -1062,8 +1186,12 @@
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8">
         <v>-45</v>
       </c>
@@ -1099,8 +1227,14 @@
         <f t="shared" si="1"/>
         <v>0.39375000000000382</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0.38723000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>-50</v>
       </c>
@@ -1136,8 +1270,14 @@
         <f t="shared" si="1"/>
         <v>0.81875000000000142</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0.107125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>-70</v>
       </c>
@@ -1173,42 +1313,62 @@
         <f t="shared" si="1"/>
         <v>0.57125000000000092</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="11">
+      <c r="N13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="17">
+        <v>1.812E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="10">
         <v>-90</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>-1.57</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>7.963E-4</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>1.5625E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>1.4828700000000001</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>-0.99990000000000001</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>-0.9921875</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f t="shared" si="1"/>
         <v>0.7712500000000011</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0.49617600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
